--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268920.1262255647</v>
+        <v>-271619.1783194715</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>158.2964914343831</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>187.5255871663198</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>83.18781725613715</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>176.1663294190256</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.16853496085724</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>60.56742651339231</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>305.0026592118911</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>235.240149464779</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>67.14335571372052</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>73.89277763194247</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841046</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224382</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>20.04929751186885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502782</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.52816839153191</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>352.9326764562672</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>147.7651719563987</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>13.27563287881868</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>154.2026235922981</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.0258230024958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>87.04960773426461</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>40.12629479774537</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>125.6731535744634</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.88641949135562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>216.7343124775824</v>
+        <v>252.1376433238287</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,10 +1895,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>161.6533746177317</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>125.2851635392061</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>134.452563354727</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223644</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977582</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.92847288552886</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>65.5642392189518</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>149.247941062034</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.82891891787433</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,13 +3746,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>47.16611136584719</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>149.1095818503217</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148099</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148099</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148099</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>174.8974928666219</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,52 +4328,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S2" t="n">
-        <v>603.4370373477792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V2" t="n">
-        <v>603.4370373477792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148099</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148099</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.3713899648685</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C3" t="n">
-        <v>325.3713899648685</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>325.3713899648685</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
         <v>166.133934959413</v>
@@ -4419,40 +4419,40 @@
         <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T3" t="n">
-        <v>514.7911749813532</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="U3" t="n">
-        <v>325.3713899648685</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="V3" t="n">
-        <v>325.3713899648685</v>
+        <v>544.9735049923823</v>
       </c>
       <c r="W3" t="n">
-        <v>325.3713899648685</v>
+        <v>544.9735049923823</v>
       </c>
       <c r="X3" t="n">
-        <v>325.3713899648685</v>
+        <v>355.5537199758976</v>
       </c>
       <c r="Y3" t="n">
-        <v>325.3713899648685</v>
+        <v>166.133934959413</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.0987689245419</v>
+        <v>244.8700891107869</v>
       </c>
       <c r="C4" t="n">
-        <v>237.0987689245419</v>
+        <v>244.8700891107869</v>
       </c>
       <c r="D4" t="n">
-        <v>141.9790366408477</v>
+        <v>244.8700891107869</v>
       </c>
       <c r="E4" t="n">
-        <v>141.9790366408477</v>
+        <v>244.8700891107869</v>
       </c>
       <c r="F4" t="n">
-        <v>141.9790366408477</v>
+        <v>244.8700891107869</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>76.18126567370186</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4492,46 @@
         <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639637</v>
+        <v>304.4030637430761</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>490.0533950377328</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>652.7915984742829</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575112</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575112</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="T4" t="n">
-        <v>426.5185539410265</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410265</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="V4" t="n">
-        <v>237.0987689245419</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="W4" t="n">
-        <v>237.0987689245419</v>
+        <v>426.5185539410266</v>
       </c>
       <c r="X4" t="n">
-        <v>237.0987689245419</v>
+        <v>426.5185539410266</v>
       </c>
       <c r="Y4" t="n">
-        <v>237.0987689245419</v>
+        <v>426.5185539410266</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.934261364451</v>
+        <v>1413.396593064885</v>
       </c>
       <c r="C5" t="n">
-        <v>761.934261364451</v>
+        <v>1044.434076124473</v>
       </c>
       <c r="D5" t="n">
-        <v>761.934261364451</v>
+        <v>686.1683775177225</v>
       </c>
       <c r="E5" t="n">
-        <v>761.934261364451</v>
+        <v>686.1683775177225</v>
       </c>
       <c r="F5" t="n">
-        <v>453.8507672110256</v>
+        <v>275.182472728115</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620873</v>
+        <v>125.612305862087</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405709</v>
+        <v>308.3091729405704</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714455</v>
+        <v>571.8625535714447</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672685</v>
+        <v>896.7859082672677</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917811</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.38261037952</v>
+        <v>1534.382610379518</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.31605928067</v>
+        <v>1758.316059280668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="T5" t="n">
-        <v>1878.308006871457</v>
+        <v>1667.024042344536</v>
       </c>
       <c r="U5" t="n">
-        <v>1878.308006871457</v>
+        <v>1413.396593064885</v>
       </c>
       <c r="V5" t="n">
-        <v>1878.308006871457</v>
+        <v>1413.396593064885</v>
       </c>
       <c r="W5" t="n">
-        <v>1525.539351601343</v>
+        <v>1413.396593064885</v>
       </c>
       <c r="X5" t="n">
-        <v>1152.073593340263</v>
+        <v>1413.396593064885</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.934261364451</v>
+        <v>1413.396593064885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4544457641213</v>
+        <v>931.6120128803335</v>
       </c>
       <c r="C6" t="n">
-        <v>408.4544457641213</v>
+        <v>757.1589835992065</v>
       </c>
       <c r="D6" t="n">
-        <v>408.4544457641213</v>
+        <v>608.2245739379553</v>
       </c>
       <c r="E6" t="n">
-        <v>249.2169907586658</v>
+        <v>448.9871189324998</v>
       </c>
       <c r="F6" t="n">
-        <v>174.5778214334714</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="G6" t="n">
-        <v>37.56616013742914</v>
+        <v>165.4408996633425</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742914</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J6" t="n">
-        <v>180.815975665342</v>
+        <v>71.18799439755998</v>
       </c>
       <c r="K6" t="n">
-        <v>316.4358703478007</v>
+        <v>206.8078890800185</v>
       </c>
       <c r="L6" t="n">
-        <v>545.1160964380424</v>
+        <v>435.4881151702601</v>
       </c>
       <c r="M6" t="n">
-        <v>831.3320023081835</v>
+        <v>721.7040210404009</v>
       </c>
       <c r="N6" t="n">
-        <v>1139.531836460446</v>
+        <v>1144.990454352908</v>
       </c>
       <c r="O6" t="n">
-        <v>1399.25467778611</v>
+        <v>1404.713295678572</v>
       </c>
       <c r="P6" t="n">
-        <v>1588.37208927684</v>
+        <v>1593.830707169301</v>
       </c>
       <c r="Q6" t="n">
-        <v>1872.849388978993</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856706</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055443</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694552</v>
+        <v>1650.197491510563</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.30360146281</v>
+        <v>1415.045383278821</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346081</v>
+        <v>1415.045383278821</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290752</v>
+        <v>1207.193883073288</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.4544457641213</v>
+        <v>999.433584308334</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>670.9842247875923</v>
+        <v>501.3053841456394</v>
       </c>
       <c r="C7" t="n">
-        <v>650.7324091190379</v>
+        <v>332.3692012177326</v>
       </c>
       <c r="D7" t="n">
-        <v>500.6157697067022</v>
+        <v>332.3692012177326</v>
       </c>
       <c r="E7" t="n">
-        <v>352.7026761243091</v>
+        <v>184.4561076353394</v>
       </c>
       <c r="F7" t="n">
-        <v>205.8127286263987</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256556</v>
+        <v>45.01194249256545</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696028</v>
+        <v>187.0844868696026</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101289</v>
+        <v>424.4148644101285</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467497</v>
+        <v>685.0355944467492</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609266</v>
+        <v>944.893962460926</v>
       </c>
       <c r="O7" t="n">
         <v>1168.898929103174</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890531</v>
+        <v>1337.05319389053</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.03941055281</v>
+        <v>1370.039410552809</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.03941055281</v>
+        <v>1255.760791512124</v>
       </c>
       <c r="S7" t="n">
-        <v>1370.03941055281</v>
+        <v>1054.599143859943</v>
       </c>
       <c r="T7" t="n">
-        <v>1370.03941055281</v>
+        <v>1018.712105080617</v>
       </c>
       <c r="U7" t="n">
-        <v>1370.03941055281</v>
+        <v>1018.712105080617</v>
       </c>
       <c r="V7" t="n">
-        <v>1370.03941055281</v>
+        <v>1018.712105080617</v>
       </c>
       <c r="W7" t="n">
-        <v>1080.622240515849</v>
+        <v>729.2949350436568</v>
       </c>
       <c r="X7" t="n">
-        <v>852.6326896178321</v>
+        <v>501.3053841456394</v>
       </c>
       <c r="Y7" t="n">
-        <v>852.6326896178321</v>
+        <v>501.3053841456394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.20873824882</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C8" t="n">
-        <v>1367.20873824882</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D8" t="n">
-        <v>1008.94303964207</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>623.1547870438255</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>212.168882254218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>200.5045360189109</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312942</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1753.808578312942</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4857,61 +4857,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380233</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694951</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>469.3672009680643</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>319.2505615557285</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>319.2505615557285</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>319.2505615557285</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,10 +4981,10 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
         <v>1439.817372234359</v>
@@ -4993,19 +4993,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1061.078665578288</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W10" t="n">
-        <v>1061.078665578288</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X10" t="n">
-        <v>833.0891146802707</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.0891146802707</v>
+        <v>638.3033838959711</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.076467649853</v>
+        <v>1689.468935552212</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.113950709441</v>
+        <v>1320.5064186118</v>
       </c>
       <c r="D11" t="n">
-        <v>1170.848252102691</v>
+        <v>962.2407200050498</v>
       </c>
       <c r="E11" t="n">
-        <v>785.0599995044468</v>
+        <v>576.4524674068057</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>165.4665626171981</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656955</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087834</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484046</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.9885135353</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345376</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048269</v>
+        <v>3523.50540846691</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.526802048269</v>
+        <v>3192.442521123339</v>
       </c>
       <c r="W11" t="n">
-        <v>2966.758146778155</v>
+        <v>2839.673865853225</v>
       </c>
       <c r="X11" t="n">
-        <v>2593.292388517075</v>
+        <v>2466.208107592145</v>
       </c>
       <c r="Y11" t="n">
-        <v>2203.153056541263</v>
+        <v>2076.068775616333</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870412</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929944</v>
+        <v>889.4740370626181</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1933.239912720358</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2401.180957052881</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2401.180957052881</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.7390225776242</v>
+        <v>835.7893828380002</v>
       </c>
       <c r="C13" t="n">
-        <v>673.7390225776242</v>
+        <v>666.8531999100933</v>
       </c>
       <c r="D13" t="n">
-        <v>523.6223831652883</v>
+        <v>516.7365604977575</v>
       </c>
       <c r="E13" t="n">
-        <v>483.0907722584749</v>
+        <v>368.8234669153644</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>221.933519417454</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344817</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336949</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742808</v>
+        <v>1916.47163617725</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692259</v>
+        <v>1916.47163617725</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486372</v>
+        <v>1661.787147971363</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449411</v>
+        <v>1372.369977934402</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.180066551394</v>
+        <v>1144.380427036385</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.3874874078639</v>
+        <v>1017.43784766824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888043</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>733.7765431483242</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888044</v>
+        <v>585.8634495659311</v>
       </c>
       <c r="F16" t="n">
-        <v>402.724593490894</v>
+        <v>438.9735020680207</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>271.7774027829007</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>130.0655716250988</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.462305897552</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.045135860591</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X16" t="n">
-        <v>952.0555849625741</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.263005819044</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5543,22 +5543,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958764</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679695</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9926444679695</v>
+        <v>470.7064074803616</v>
       </c>
       <c r="E19" t="n">
-        <v>486.0795508855764</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>339.189603387666</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
         <v>175.9033664000583</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261161</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,31 +6145,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614386</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2229.161883810406</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2009.560418833347</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138409</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,7 +7026,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121644</v>
+        <v>853.5941094450257</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121644</v>
+        <v>703.4774700326899</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>555.5643764502968</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400709</v>
+        <v>741.843151638088</v>
       </c>
       <c r="C40" t="n">
-        <v>344.917417812164</v>
+        <v>572.9069687101811</v>
       </c>
       <c r="D40" t="n">
-        <v>344.917417812164</v>
+        <v>422.7903292978453</v>
       </c>
       <c r="E40" t="n">
-        <v>344.917417812164</v>
+        <v>274.8772357154523</v>
       </c>
       <c r="F40" t="n">
-        <v>344.917417812164</v>
+        <v>127.9872882175419</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>127.9872882175419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>127.9872882175419</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,10 +7357,10 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854705</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703106</v>
+        <v>923.4916164683277</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
+        <v>747.3737171343191</v>
+      </c>
+      <c r="D43" t="n">
+        <v>597.2570777219831</v>
+      </c>
+      <c r="E43" t="n">
+        <v>549.6145409888042</v>
+      </c>
+      <c r="F43" t="n">
         <v>402.7245934908938</v>
-      </c>
-      <c r="D43" t="n">
-        <v>402.7245934908938</v>
-      </c>
-      <c r="E43" t="n">
-        <v>402.7245934908938</v>
-      </c>
-      <c r="F43" t="n">
-        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1824.417283336613</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1569.732795130726</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899308</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>116.4012961287065</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496441</v>
+        <v>15.76852197496453</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.7353346139211</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>116.2490900608528</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.00791436438833</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878354</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.70801866098481</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>323.4199991790013</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>106.3076678488238</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.91149977763141</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682720992</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>35.40333084624564</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.870763674537159</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>55.74112246243847</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>151.7319110345171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.4693302300324</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>117.6435571543366</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.2291039219422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.4620467826928</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>31.77834493961061</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>75.3754992116879</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194259</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>47.43691740069121</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.26785128072197</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>68.29586847696655</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
@@ -26320,19 +26320,19 @@
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
@@ -26341,19 +26341,19 @@
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912902</v>
+        <v>312214.8578912896</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972651</v>
+        <v>175413.4991972654</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545769</v>
+        <v>313577.1573545783</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704279</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030186</v>
+        <v>72591.00846030177</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925503</v>
+        <v>43280.54279925512</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273064</v>
+        <v>81897.40371273103</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202338</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632065</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057575</v>
+        <v>195152.1081057576</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
@@ -26433,25 +26433,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685507</v>
@@ -26470,13 +26470,13 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638308</v>
+        <v>79427.52208638305</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-618621.2158965592</v>
+        <v>-618621.2158965588</v>
       </c>
       <c r="C6" t="n">
-        <v>-278903.8243843247</v>
+        <v>-278903.8243843241</v>
       </c>
       <c r="D6" t="n">
-        <v>-106819.9753510611</v>
+        <v>-106819.9753510615</v>
       </c>
       <c r="E6" t="n">
-        <v>-138105.0093362726</v>
+        <v>-138326.1406502486</v>
       </c>
       <c r="F6" t="n">
-        <v>-1967.575787438924</v>
+        <v>-2002.313712873584</v>
       </c>
       <c r="G6" t="n">
-        <v>187340.6929829899</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="H6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="I6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="J6" t="n">
-        <v>138275.7482544454</v>
+        <v>138241.0103290098</v>
       </c>
       <c r="K6" t="n">
-        <v>114749.6845226882</v>
+        <v>114714.9465972525</v>
       </c>
       <c r="L6" t="n">
-        <v>144060.1501837351</v>
+        <v>144025.4122582992</v>
       </c>
       <c r="M6" t="n">
-        <v>105443.2892702595</v>
+        <v>105408.5513448234</v>
       </c>
       <c r="N6" t="n">
-        <v>137501.1188509663</v>
+        <v>137466.380925531</v>
       </c>
       <c r="O6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="P6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575545</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283002</v>
+        <v>791.2679074282997</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178642</v>
+        <v>469.5770017178636</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490087</v>
+        <v>969.2208239490101</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153957</v>
+        <v>242.7979665153953</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892393</v>
+        <v>142.7969846892395</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974109</v>
+        <v>268.1763450974121</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515438</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489696</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.051414551544</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489696</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515438</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489696</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>254.8013417956749</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,7 +27427,7 @@
         <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>13.5771549857281</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27445,7 +27445,7 @@
         <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>112.2217805358641</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377111</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>56.63425773039967</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715764</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>54.44693805735511</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>92.86624431842726</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553086</v>
@@ -27588,16 +27588,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378029</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027116</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>101.8733865298203</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>176.8816115380814</v>
       </c>
       <c r="H5" t="n">
         <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094039</v>
+        <v>87.84129258094046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>99.38982793614682</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>71.17643476144141</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>147.197523586759</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
         <v>149.5409427785071</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502781</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1500311756599</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595716</v>
+        <v>186.3207666680397</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>12.34021531474036</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>153.2533806060067</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>153.0309671659855</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>97.93501973152993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.982574187626596e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30466,13 +30466,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274571</v>
+        <v>3.180976512274569</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633196</v>
+        <v>32.57717570633194</v>
       </c>
       <c r="I5" t="n">
         <v>122.6345969894655</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586642</v>
+        <v>269.981405258664</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232468</v>
+        <v>404.6321410232466</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607698</v>
+        <v>501.9819509607696</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109327</v>
+        <v>558.5516420109324</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264329</v>
+        <v>567.5895915264325</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325026</v>
+        <v>535.9587563325023</v>
       </c>
       <c r="P5" t="n">
-        <v>457.428398685724</v>
+        <v>457.4283986857238</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398909</v>
+        <v>343.5096773398906</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391677</v>
+        <v>199.8170158391676</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345686</v>
+        <v>72.48650227345682</v>
       </c>
       <c r="T5" t="n">
         <v>13.92472468248194</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819656</v>
+        <v>0.2544781209819655</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128797</v>
+        <v>1.701972480128796</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808601</v>
+        <v>16.437471058086</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5986138991713</v>
+        <v>58.59861389917126</v>
       </c>
       <c r="J6" t="n">
         <v>160.7990754142737</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829031</v>
+        <v>274.8312315829029</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437547</v>
+        <v>369.5445071437546</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484236</v>
+        <v>431.2410095484233</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734979</v>
+        <v>442.6546758734976</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138019</v>
+        <v>404.9425488138016</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888051</v>
+        <v>325.0020957888049</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.255294130125</v>
+        <v>217.2552941301249</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995757</v>
+        <v>105.6715895995756</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923443</v>
+        <v>31.61339233923441</v>
       </c>
       <c r="T6" t="n">
-        <v>6.86014346157177</v>
+        <v>6.860143461571766</v>
       </c>
       <c r="U6" t="n">
         <v>0.111971873692684</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378902</v>
+        <v>1.426876554378901</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893243</v>
+        <v>12.68622972893242</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168553</v>
+        <v>42.91006947168551</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945884</v>
+        <v>100.8801723945883</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087487</v>
+        <v>165.7771124087486</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210233</v>
+        <v>212.1376288210232</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014128</v>
+        <v>223.6693857014126</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350916</v>
+        <v>218.3510276350914</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589379</v>
+        <v>201.6825151589378</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496082</v>
+        <v>172.5742334496081</v>
       </c>
       <c r="Q7" t="n">
         <v>119.4814540216733</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689134</v>
+        <v>64.15755852689129</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131231</v>
+        <v>24.86656686131229</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709852</v>
+        <v>6.096654368709848</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884928</v>
+        <v>0.07782963023884923</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>451.0669018060895</v>
+        <v>561.4806834747752</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>299.7767623746013</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,7 +34217,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34860,19 +34860,19 @@
         <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>177.859822485139</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>98.29368706161262</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197787</v>
+        <v>88.9355007319777</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782662</v>
+        <v>184.542289978266</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907826</v>
+        <v>266.2155359907823</v>
       </c>
       <c r="M5" t="n">
-        <v>328.20540878366</v>
+        <v>328.2054087836597</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298419</v>
+        <v>338.1765279298416</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108159</v>
+        <v>305.8605449108155</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304545</v>
+        <v>226.1954029304542</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654414</v>
+        <v>121.2039874654411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144.6967833615281</v>
+        <v>33.96144874760697</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085441</v>
+        <v>136.989792608544</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638806</v>
+        <v>230.9901273638804</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264052</v>
+        <v>289.106975626405</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901645</v>
+        <v>427.5620538510171</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693574</v>
+        <v>262.3463043693572</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744748</v>
+        <v>191.0276883744746</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3508077799526</v>
+        <v>287.3508077799524</v>
       </c>
       <c r="R6" t="n">
-        <v>5.513755446932549</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915582</v>
+        <v>7.520992277915525</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828659</v>
+        <v>143.5076205828658</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813395</v>
+        <v>239.7276540813393</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632533</v>
+        <v>263.2532626632532</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143201</v>
+        <v>262.48320001432</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729776</v>
+        <v>226.2676430729775</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145017</v>
+        <v>169.8527927145016</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997894</v>
+        <v>33.31941076997887</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>312.5125220262153</v>
+        <v>422.926303694901</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>159.7949882885798</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
